--- a/datasets/sg-16/SISSO_new_testset.xlsx
+++ b/datasets/sg-16/SISSO_new_testset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyugao/Desktop/research_files/SISSO/HAppend-main/Create_sisso_input/Review_SISSOonPAH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344D805-DF83-FE48-91DA-919F622A4C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D6114-FE5C-AA42-9110-E35FE400B9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="5500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow new; Grey old" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="316">
   <si>
     <t>Ref_code</t>
   </si>
@@ -1364,6 +1364,57 @@
   <si>
     <t>GWBSE_DeltaEstC</t>
   </si>
+  <si>
+    <t>2 x 2 x 2</t>
+  </si>
+  <si>
+    <t>1 x 2 x 2</t>
+  </si>
+  <si>
+    <t>2 x 4 x 4</t>
+  </si>
+  <si>
+    <t>4 x 4 x 2</t>
+  </si>
+  <si>
+    <t>4 x 4 x 4</t>
+  </si>
+  <si>
+    <t>2 x 2 x 4</t>
+  </si>
+  <si>
+    <t>1 x 2 x 8</t>
+  </si>
+  <si>
+    <t>4 x 1 x 1</t>
+  </si>
+  <si>
+    <t>4 x 8 x 8</t>
+  </si>
+  <si>
+    <t>8 x 8 x 4</t>
+  </si>
+  <si>
+    <t>8 x 8 x 8</t>
+  </si>
+  <si>
+    <t>4 x 4 x 8</t>
+  </si>
+  <si>
+    <t>2 x 4 x 16</t>
+  </si>
+  <si>
+    <t>8 x 2 x 2</t>
+  </si>
+  <si>
+    <t>ZERXED</t>
+  </si>
+  <si>
+    <t>ZERXIH</t>
+  </si>
+  <si>
+    <t>ZERXON</t>
+  </si>
 </sst>
 </file>
 
@@ -1374,11 +1425,18 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1545,74 +1603,72 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1878,7 +1934,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:B29"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11937,8 +11993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64EF709-B494-A046-A351-F4C2ADFB7208}">
   <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12059,7 +12115,7 @@
       <c r="D2" s="7">
         <v>1.1603497</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="31">
         <v>2.02</v>
       </c>
       <c r="F2" s="7">
@@ -12072,20 +12128,20 @@
       <c r="H2" s="9">
         <v>1.1468</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="33">
         <v>0.97941</v>
       </c>
       <c r="J2" s="9">
         <f>2*I2-H2</f>
         <v>0.81201999999999996</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="33">
         <v>7.8549999999999995E-2</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="33">
         <v>0.14334</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="32">
         <v>2.2147E-2</v>
       </c>
       <c r="N2" s="8">
@@ -12103,7 +12159,7 @@
       <c r="R2" s="7">
         <v>1.6413610599999999</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="32">
         <v>943.97900000000004</v>
       </c>
       <c r="T2" s="9">
@@ -12112,14 +12168,23 @@
       <c r="U2" s="9">
         <v>0.87154692436083003</v>
       </c>
-      <c r="V2" s="33">
+      <c r="V2" s="32">
         <v>3.656342</v>
       </c>
-      <c r="W2" s="33">
+      <c r="W2" s="32">
         <v>376.45800000000003</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12135,7 +12200,7 @@
       <c r="D3" s="11">
         <v>1.0733927000000001</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>2.44</v>
       </c>
       <c r="F3" s="7">
@@ -12161,7 +12226,7 @@
       <c r="L3" s="9">
         <v>0.10833</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="32">
         <v>9.7099999999999999E-3</v>
       </c>
       <c r="N3" s="8">
@@ -12179,7 +12244,7 @@
       <c r="R3" s="7">
         <v>1.82853493</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="32">
         <v>1181.28</v>
       </c>
       <c r="T3" s="9">
@@ -12188,14 +12253,23 @@
       <c r="U3" s="9">
         <v>0.77056787999999998</v>
       </c>
-      <c r="V3" s="33">
+      <c r="V3" s="32">
         <v>3.1892492180850001</v>
       </c>
-      <c r="W3" s="33">
+      <c r="W3" s="32">
         <v>458.60399999999998</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12211,7 +12285,7 @@
       <c r="D4" s="11">
         <v>1.2177359000000001</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>2.56</v>
       </c>
       <c r="F4" s="7">
@@ -12237,7 +12311,7 @@
       <c r="L4" s="9">
         <v>0.13038</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="32">
         <v>1.319E-2</v>
       </c>
       <c r="N4" s="8">
@@ -12255,7 +12329,7 @@
       <c r="R4" s="7">
         <v>1.4703647200000001</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="32">
         <v>1050.4380000000001</v>
       </c>
       <c r="T4" s="9">
@@ -12264,14 +12338,23 @@
       <c r="U4" s="9">
         <v>0.7708237</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V4" s="32">
         <v>3.1687165196618499</v>
       </c>
-      <c r="W4" s="33">
+      <c r="W4" s="32">
         <v>408.54399999999998</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="X4" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12287,7 +12370,7 @@
       <c r="D5" s="11">
         <v>1.7177045</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>3.65</v>
       </c>
       <c r="F5" s="7">
@@ -12313,7 +12396,7 @@
       <c r="L5" s="9">
         <v>0.30578</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="32">
         <v>3.63E-3</v>
       </c>
       <c r="N5" s="8">
@@ -12331,7 +12414,7 @@
       <c r="R5" s="7">
         <v>0.91589798</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="32">
         <v>1031.7</v>
       </c>
       <c r="T5" s="9">
@@ -12340,14 +12423,23 @@
       <c r="U5" s="9">
         <v>0.61733369999999999</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="32">
         <v>2.8452592540647599</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="32">
         <v>356.63799999999901</v>
       </c>
-      <c r="X5" s="31" t="s">
+      <c r="X5" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12363,7 +12455,7 @@
       <c r="D6" s="11">
         <v>2.0987854000000001</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>3.92</v>
       </c>
       <c r="F6" s="7">
@@ -12389,7 +12481,7 @@
       <c r="L6" s="9">
         <v>0.16833999999999999</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="32">
         <v>5.6073333333333301E-2</v>
       </c>
       <c r="N6" s="8">
@@ -12407,7 +12499,7 @@
       <c r="R6" s="7">
         <v>0.83495542</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="32">
         <v>557.577</v>
       </c>
       <c r="T6" s="9">
@@ -12416,14 +12508,23 @@
       <c r="U6" s="9">
         <v>0.73609610000000003</v>
       </c>
-      <c r="V6" s="33">
+      <c r="V6" s="32">
         <v>3.1706742202592801</v>
       </c>
-      <c r="W6" s="33">
+      <c r="W6" s="32">
         <v>206.28800000000001</v>
       </c>
-      <c r="X6" s="31" t="s">
+      <c r="X6" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12439,7 +12540,7 @@
       <c r="D7" s="11">
         <v>1.4243104</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>2.91</v>
       </c>
       <c r="F7" s="7">
@@ -12465,7 +12566,7 @@
       <c r="L7" s="9">
         <v>0.20116000000000001</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="32">
         <v>3.8626666666666698E-2</v>
       </c>
       <c r="N7" s="8">
@@ -12483,7 +12584,7 @@
       <c r="R7" s="7">
         <v>0.65992362999999998</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="32">
         <v>484.67700000000002</v>
       </c>
       <c r="T7" s="9">
@@ -12492,14 +12593,23 @@
       <c r="U7" s="9">
         <v>0.74472559000000005</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="32">
         <v>3.1956022461004001</v>
       </c>
-      <c r="W7" s="33">
+      <c r="W7" s="32">
         <v>180.25</v>
       </c>
-      <c r="X7" s="31" t="s">
+      <c r="X7" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12515,7 +12625,7 @@
       <c r="D8" s="9">
         <v>1.4837111000000001</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>2.75</v>
       </c>
       <c r="F8" s="7">
@@ -12541,7 +12651,7 @@
       <c r="L8" s="9">
         <v>0.27877000000000002</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="8">
         <v>1.7542500000000001</v>
       </c>
@@ -12557,7 +12667,7 @@
       <c r="R8" s="8">
         <v>1.86861006</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="32">
         <v>714.73699999999997</v>
       </c>
       <c r="T8" s="9">
@@ -12566,19 +12676,28 @@
       <c r="U8" s="9">
         <v>0.75204088000000002</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="32">
         <v>2.92820236833089</v>
       </c>
-      <c r="W8" s="33">
+      <c r="W8" s="32">
         <v>290.36599999999999</v>
       </c>
-      <c r="X8" s="31" t="s">
+      <c r="X8" s="8" t="s">
         <v>294</v>
       </c>
+      <c r="Y8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
+      <c r="A9" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>39</v>
@@ -12589,7 +12708,7 @@
       <c r="D9" s="7">
         <v>1.5289196</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>2.72</v>
       </c>
       <c r="F9" s="7">
@@ -12615,7 +12734,7 @@
       <c r="L9" s="9">
         <v>0.31119000000000002</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <v>2.5430000000000001E-2</v>
       </c>
       <c r="N9" s="8">
@@ -12633,7 +12752,7 @@
       <c r="R9" s="7">
         <v>1.7159111300000001</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="32">
         <v>1067.952</v>
       </c>
       <c r="T9" s="9">
@@ -12642,19 +12761,28 @@
       <c r="U9" s="9">
         <v>0.86916585000000002</v>
       </c>
-      <c r="V9" s="33">
+      <c r="V9" s="32">
         <v>3.4667277795753799</v>
       </c>
-      <c r="W9" s="33">
+      <c r="W9" s="32">
         <v>426.51799999999997</v>
       </c>
-      <c r="X9" s="31" t="s">
+      <c r="X9" s="8" t="s">
         <v>294</v>
       </c>
+      <c r="Y9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
+      <c r="A10" s="34" t="s">
+        <v>314</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -12665,7 +12793,7 @@
       <c r="D10" s="7">
         <v>1.0815832000000001</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>2.04</v>
       </c>
       <c r="F10" s="7">
@@ -12691,7 +12819,7 @@
       <c r="L10" s="9">
         <v>5.3299999999999903E-2</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <v>2.0866666666666698E-3</v>
       </c>
       <c r="N10" s="8">
@@ -12709,7 +12837,7 @@
       <c r="R10" s="7">
         <v>1.76315365</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="32">
         <v>1437.991</v>
       </c>
       <c r="T10" s="9">
@@ -12718,19 +12846,28 @@
       <c r="U10" s="9">
         <v>0.86210626999999995</v>
       </c>
-      <c r="V10" s="33">
+      <c r="V10" s="32">
         <v>3.4316075098066299</v>
       </c>
-      <c r="W10" s="33">
+      <c r="W10" s="32">
         <v>576.698000000001</v>
       </c>
-      <c r="X10" s="31" t="s">
+      <c r="X10" s="8" t="s">
         <v>294</v>
       </c>
+      <c r="Y10" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
+      <c r="A11" s="34" t="s">
+        <v>315</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>45</v>
@@ -12741,7 +12878,7 @@
       <c r="D11" s="7">
         <v>1.9945032</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>3.41</v>
       </c>
       <c r="F11" s="7">
@@ -12767,7 +12904,7 @@
       <c r="L11" s="9">
         <v>8.5569999999999993E-2</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="32">
         <v>4.9079999999999999E-2</v>
       </c>
       <c r="N11" s="8">
@@ -12785,7 +12922,7 @@
       <c r="R11" s="7">
         <v>1.16174555</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="32">
         <v>1459.009</v>
       </c>
       <c r="T11" s="9">
@@ -12794,14 +12931,23 @@
       <c r="U11" s="9">
         <v>0.79322612999999997</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11" s="32">
         <v>3.1317149999999998</v>
       </c>
-      <c r="W11" s="33">
+      <c r="W11" s="32">
         <v>580.73</v>
       </c>
-      <c r="X11" s="31" t="s">
+      <c r="X11" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12817,7 +12963,7 @@
       <c r="D12" s="7">
         <v>1.3298570000000001</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>2.98</v>
       </c>
       <c r="F12" s="7">
@@ -12843,7 +12989,7 @@
       <c r="L12" s="9">
         <v>0.34118999999999999</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="32">
         <v>7.3693333333333305E-2</v>
       </c>
       <c r="N12" s="8">
@@ -12861,7 +13007,7 @@
       <c r="R12" s="7">
         <v>1.1711854399999999</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="32">
         <v>577.54300000000001</v>
       </c>
       <c r="T12" s="9">
@@ -12870,14 +13016,23 @@
       <c r="U12" s="9">
         <v>0.80964375</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="32">
         <v>3.27525846538934</v>
       </c>
-      <c r="W12" s="33">
+      <c r="W12" s="32">
         <v>228.29400000000001</v>
       </c>
-      <c r="X12" s="31" t="s">
+      <c r="X12" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12893,7 +13048,7 @@
       <c r="D13" s="7">
         <v>1.3545849999999999</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>2.84</v>
       </c>
       <c r="F13" s="7">
@@ -12919,7 +13074,7 @@
       <c r="L13" s="9">
         <v>0.35194999999999999</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="32">
         <v>6.8143333333333306E-2</v>
       </c>
       <c r="N13" s="8">
@@ -12937,7 +13092,7 @@
       <c r="R13" s="7">
         <v>1.1724031100000001</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="32">
         <v>577.50599999999997</v>
       </c>
       <c r="T13" s="9">
@@ -12946,14 +13101,23 @@
       <c r="U13" s="9">
         <v>0.80740747999999996</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="32">
         <v>3.2609681799789501</v>
       </c>
-      <c r="W13" s="33">
+      <c r="W13" s="32">
         <v>228.29400000000001</v>
       </c>
-      <c r="X13" s="31" t="s">
+      <c r="X13" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12969,7 +13133,7 @@
       <c r="D14" s="7">
         <v>1.3311691000000001</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>2.88</v>
       </c>
       <c r="F14" s="7">
@@ -12995,7 +13159,7 @@
       <c r="L14" s="9">
         <v>0.33078999999999997</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="32">
         <v>5.7526666666666698E-2</v>
       </c>
       <c r="N14" s="8">
@@ -13013,7 +13177,7 @@
       <c r="R14" s="7">
         <v>1.1714143299999999</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="32">
         <v>577.53300000000002</v>
       </c>
       <c r="T14" s="9">
@@ -13022,14 +13186,23 @@
       <c r="U14" s="9">
         <v>0.80476614999999996</v>
       </c>
-      <c r="V14" s="33">
+      <c r="V14" s="32">
         <v>3.2444426204614598</v>
       </c>
-      <c r="W14" s="33">
+      <c r="W14" s="32">
         <v>228.29400000000001</v>
       </c>
-      <c r="X14" s="31" t="s">
+      <c r="X14" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -13045,7 +13218,7 @@
       <c r="D15" s="7">
         <v>1.3578105</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>2.84</v>
       </c>
       <c r="F15" s="7">
@@ -13071,7 +13244,7 @@
       <c r="L15" s="9">
         <v>0.31607000000000002</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="32">
         <v>6.1886666666666701E-2</v>
       </c>
       <c r="N15" s="8">
@@ -13089,7 +13262,7 @@
       <c r="R15" s="7">
         <v>1.1714484199999999</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S15" s="32">
         <v>577.53200000000004</v>
       </c>
       <c r="T15" s="9">
@@ -13098,14 +13271,23 @@
       <c r="U15" s="9">
         <v>0.80479414000000005</v>
       </c>
-      <c r="V15" s="33">
+      <c r="V15" s="32">
         <v>3.2491037044479301</v>
       </c>
-      <c r="W15" s="33">
+      <c r="W15" s="32">
         <v>228.29400000000001</v>
       </c>
-      <c r="X15" s="31" t="s">
+      <c r="X15" s="8" t="s">
         <v>294</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -13121,7 +13303,7 @@
       <c r="D16" s="7">
         <v>1.3672825</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>2.79</v>
       </c>
       <c r="F16" s="7">
@@ -13147,7 +13329,7 @@
       <c r="L16" s="9">
         <v>0.25076999999999999</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="32">
         <v>5.3756666666666703E-2</v>
       </c>
       <c r="N16" s="8">
@@ -13165,7 +13347,7 @@
       <c r="R16" s="7">
         <v>1.1719598200000001</v>
       </c>
-      <c r="S16" s="33">
+      <c r="S16" s="32">
         <v>577.59100000000001</v>
       </c>
       <c r="T16" s="9">
@@ -13174,17 +13356,26 @@
       <c r="U16" s="9">
         <v>0.80194368999999999</v>
       </c>
-      <c r="V16" s="33">
+      <c r="V16" s="32">
         <v>3.2316492640173098</v>
       </c>
-      <c r="W16" s="33">
+      <c r="W16" s="32">
         <v>228.29400000000001</v>
       </c>
-      <c r="X16" s="31" t="s">
+      <c r="X16" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="Y16" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -13197,7 +13388,7 @@
       <c r="D17" s="7">
         <v>1.3326823999999999</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>2.98</v>
       </c>
       <c r="F17" s="7">
@@ -13223,7 +13414,7 @@
       <c r="L17" s="9">
         <v>0.33048</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="32">
         <v>7.5416666666666701E-2</v>
       </c>
       <c r="N17" s="8">
@@ -13241,7 +13432,7 @@
       <c r="R17" s="7">
         <v>1.1711687200000001</v>
       </c>
-      <c r="S17" s="33">
+      <c r="S17" s="32">
         <v>577.52499999999998</v>
       </c>
       <c r="T17" s="9">
@@ -13250,17 +13441,26 @@
       <c r="U17" s="9">
         <v>0.79829198999999995</v>
       </c>
-      <c r="V17" s="33">
+      <c r="V17" s="32">
         <v>3.2188801090149499</v>
       </c>
-      <c r="W17" s="33">
+      <c r="W17" s="32">
         <v>228.29400000000001</v>
       </c>
-      <c r="X17" s="31" t="s">
+      <c r="X17" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="Y17" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>60</v>
       </c>
@@ -13273,7 +13473,7 @@
       <c r="D18" s="7">
         <v>1.3392942000000001</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <v>2.91</v>
       </c>
       <c r="F18" s="7">
@@ -13299,7 +13499,7 @@
       <c r="L18" s="9">
         <v>0.28194999999999998</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="32">
         <v>5.339E-2</v>
       </c>
       <c r="N18" s="8">
@@ -13317,7 +13517,7 @@
       <c r="R18" s="7">
         <v>1.1715501699999999</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S18" s="32">
         <v>577.54</v>
       </c>
       <c r="T18" s="9">
@@ -13326,17 +13526,26 @@
       <c r="U18" s="9">
         <v>0.80884644000000006</v>
       </c>
-      <c r="V18" s="33">
+      <c r="V18" s="32">
         <v>3.2700690506099401</v>
       </c>
-      <c r="W18" s="33">
+      <c r="W18" s="32">
         <v>228.29400000000001</v>
       </c>
-      <c r="X18" s="31" t="s">
+      <c r="X18" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="Y18" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
@@ -13349,7 +13558,7 @@
       <c r="D19" s="7">
         <v>1.3134097</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>3</v>
       </c>
       <c r="F19" s="7">
@@ -13375,7 +13584,7 @@
       <c r="L19" s="9">
         <v>0.35657</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="32">
         <v>7.6649999999999996E-2</v>
       </c>
       <c r="N19" s="8">
@@ -13393,7 +13602,7 @@
       <c r="R19" s="7">
         <v>1.17215643</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="32">
         <v>577.53200000000004</v>
       </c>
       <c r="T19" s="9">
@@ -13402,147 +13611,116 @@
       <c r="U19" s="9">
         <v>0.80048615999999995</v>
       </c>
-      <c r="V19" s="33">
+      <c r="V19" s="32">
         <v>3.2323334993009998</v>
       </c>
-      <c r="W19" s="33">
+      <c r="W19" s="32">
         <v>228.29400000000001</v>
       </c>
-      <c r="X19" s="31" t="s">
+      <c r="X19" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y19" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>68</v>
-      </c>
+    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>70</v>
-      </c>
+    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>72</v>
-      </c>
+    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>74</v>
-      </c>
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>76</v>
-      </c>
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>78</v>
-      </c>
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>80</v>
-      </c>
+    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>82</v>
-      </c>
+    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>84</v>
-      </c>
+    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -13550,7 +13728,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -13558,7 +13736,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
